--- a/History_data.xlsx
+++ b/History_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2449,6 +2449,5006 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45238.33333333334</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>联合大厦鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45238.66666666666</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>医院15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>市中心鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>45239.33333333334</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>林荫大道人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>45239.66666666666</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>唐人街雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>市中心枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>45240.33333333334</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>地铁鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>45240.66666666666</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>贫民窟雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45241</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45241.33333333334</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>隔离中心鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>市中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45242</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>林荫大道15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45242.33333333334</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>接力塔人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45242.66666666666</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>隔离中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45243.33333333334</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>接力塔15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45243.66666666666</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>医院人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>唐人街枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45244.33333333334</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>贫民窟人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45244.66666666666</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>联合大厦雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45245.33333333334</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>隔离中心人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45245.66666666666</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>唐人街鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45246.33333333334</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>贫民窟人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45246.66666666666</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>医院15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>接力塔鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45247.33333333334</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>45247.66666666666</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>45248</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>45248.33333333334</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>贫民窟鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>接力塔15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>45249</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>隔离中心鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>45249.33333333334</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>医院枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>45249.66666666666</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>唐人街15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>地铁雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>45250.33333333334</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>45250.66666666666</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>地铁雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>贫民窟枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>45251.33333333334</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>联合大厦15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>45251.66666666666</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>联合大厦雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>45252.33333333334</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>地铁15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>45252.66666666666</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>接力塔人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>45253</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>贫民窟枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>45253.33333333334</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>唐人街鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>45253.66666666666</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>隔离中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>45254.33333333334</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>唐人街枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>45254.66666666666</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>医院鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>接力塔枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>45255.33333333334</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>医院鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>45255.66666666666</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>唐人街15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>45256.33333333334</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>唐人街枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>45256.66666666666</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>接力塔15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>隔离中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45257.33333333334</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>接力塔枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45257.66666666666</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>医院人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45258.33333333334</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>林荫大道雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>45258.66666666666</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>市中心人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>林荫大道鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>45259.33333333334</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>贫民窟15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>45259.66666666666</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>接力塔枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>医院人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>45260.33333333334</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>唐人街枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>45260.66666666666</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>隔离中心鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>45261.33333333334</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>贫民窟枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>45261.66666666666</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>市中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>45262</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>接力塔15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>45262.33333333334</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>联合大厦鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>45262.66666666666</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>市中心枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>45263</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>唐人街人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>45263.33333333334</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>医院枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>45263.66666666666</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>林荫大道鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>地铁15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>45264.33333333334</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>联合大厦枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45264.66666666666</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>接力塔雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>联合大厦枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45265.33333333334</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>隔离中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45265.66666666666</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>市中心人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>唐人街鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45266.33333333334</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45266.66666666666</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>医院15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>地铁鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45267.33333333334</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>接力塔人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45267.66666666666</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>贫民窟枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45268</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>唐人街雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45268.33333333334</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45268.66666666666</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>隔离中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45269</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>接力塔鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45269.33333333334</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>市中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45269.66666666666</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>接力塔鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45270</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>隔离中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45270.33333333334</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>唐人街鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>45270.66666666666</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>医院鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>45271.33333333334</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>林荫大道15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>45271.66666666666</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>联合大厦鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>医院15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>45272.33333333334</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>市中心鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>45272.66666666666</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>林荫大道人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>唐人街雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>45273.33333333334</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>市中心枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45273.66666666666</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>地铁鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>贫民窟雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45274.33333333334</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45274.66666666666</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>隔离中心鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>市中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45275.33333333334</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>林荫大道15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>45275.66666666666</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>接力塔人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>隔离中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>45276.33333333334</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>45276.66666666666</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>接力塔15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>45277</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>医院人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>45277.33333333334</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>唐人街枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>45277.66666666666</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>贫民窟人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>联合大厦雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>45278.33333333334</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>45278.66666666666</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>隔离中心人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>45279.33333333334</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>唐人街鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>45279.66666666666</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>贫民窟人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>医院15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>45280.33333333334</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>接力塔鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>45280.66666666666</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>45281.33333333334</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>45281.66666666666</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>贫民窟鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>45282</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>接力塔15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>45282.33333333334</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>隔离中心鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>45282.66666666666</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>医院枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>唐人街15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>45283.33333333334</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>地铁雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>45283.66666666666</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>45284</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>地铁雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>45284.33333333334</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>贫民窟枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>45284.66666666666</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>联合大厦15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>45285.33333333334</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>联合大厦雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>45285.66666666666</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>地铁15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>接力塔人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>45286.33333333334</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>贫民窟枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>45286.66666666666</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>唐人街鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>45287</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>隔离中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>45287.33333333334</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>45287.66666666666</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>唐人街枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>医院鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>45288.33333333334</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>接力塔枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>45288.66666666666</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>医院鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>唐人街15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>45289.33333333334</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>45289.66666666666</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>唐人街枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>接力塔15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>45290.33333333334</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>隔离中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>45290.66666666666</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>接力塔枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>45291</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>医院人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>45291.33333333334</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>45291.66666666666</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>林荫大道雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>市中心人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>45292.33333333334</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>林荫大道鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>45292.66666666666</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>贫民窟15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>接力塔枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>45293.33333333334</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>医院人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>45293.66666666666</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>唐人街枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>45294.33333333334</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>隔离中心鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>45294.66666666666</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>贫民窟枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>市中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>45295.33333333334</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>接力塔15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
+        <v>45295.66666666666</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>联合大厦鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>市中心枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>45296.33333333334</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>唐人街人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="n">
+        <v>45296.66666666666</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>医院枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>林荫大道鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="n">
+        <v>45297.33333333334</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>地铁15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="n">
+        <v>45297.66666666666</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>联合大厦枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>接力塔雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="n">
+        <v>45298.33333333334</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>联合大厦枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="n">
+        <v>45298.66666666666</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>隔离中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>市中心人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="n">
+        <v>45299.33333333334</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>唐人街鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="n">
+        <v>45299.66666666666</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>医院15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>45300.33333333334</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>地铁鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>45300.66666666666</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>接力塔人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>贫民窟枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>45301.33333333334</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>唐人街雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>45301.66666666666</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>隔离中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>45302.33333333334</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>接力塔鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>45302.66666666666</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>市中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>接力塔鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>45303.33333333334</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>隔离中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>45303.66666666666</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>唐人街鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>45304.33333333334</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>医院鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>45304.66666666666</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>林荫大道15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>联合大厦鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>45305.33333333334</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>医院15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>45305.66666666666</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>市中心鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>林荫大道人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>45306.33333333334</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>唐人街雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="n">
+        <v>45306.66666666666</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>市中心枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>地铁鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="n">
+        <v>45307.33333333334</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>贫民窟雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="n">
+        <v>45307.66666666666</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>隔离中心鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="n">
+        <v>45308.33333333334</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>市中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="n">
+        <v>45308.66666666666</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>林荫大道15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>接力塔人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="n">
+        <v>45309.33333333334</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>隔离中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="n">
+        <v>45309.66666666666</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>接力塔15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="2" t="n">
+        <v>45310.33333333334</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>医院人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="2" t="n">
+        <v>45310.66666666666</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>唐人街枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>贫民窟人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="n">
+        <v>45311.33333333334</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>联合大厦雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="n">
+        <v>45311.66666666666</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>隔离中心人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="n">
+        <v>45312.33333333334</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="n">
+        <v>45312.66666666666</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>唐人街鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>贫民窟人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="n">
+        <v>45313.33333333334</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>医院15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="n">
+        <v>45313.66666666666</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>接力塔鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="2" t="n">
+        <v>45314.33333333334</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2" t="n">
+        <v>45314.66666666666</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>贫民窟鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="2" t="n">
+        <v>45315.33333333334</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>接力塔15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="2" t="n">
+        <v>45315.66666666666</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>隔离中心鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>医院枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="n">
+        <v>45316.33333333334</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>唐人街15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="n">
+        <v>45316.66666666666</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>地铁雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="2" t="n">
+        <v>45317.33333333334</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>地铁雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="2" t="n">
+        <v>45317.66666666666</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>贫民窟枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>联合大厦15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="n">
+        <v>45318.33333333334</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2" t="n">
+        <v>45318.66666666666</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>联合大厦雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="n">
+        <v>45319</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>地铁15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2" t="n">
+        <v>45319.33333333334</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>接力塔人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="2" t="n">
+        <v>45319.66666666666</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>贫民窟枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>唐人街鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2" t="n">
+        <v>45320.33333333334</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>隔离中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="2" t="n">
+        <v>45320.66666666666</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>唐人街枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2" t="n">
+        <v>45321.33333333334</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>医院鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="2" t="n">
+        <v>45321.66666666666</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>接力塔枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>医院鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="n">
+        <v>45322.33333333334</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>唐人街15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="n">
+        <v>45322.66666666666</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>唐人街枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="2" t="n">
+        <v>45323.33333333334</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>接力塔15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="2" t="n">
+        <v>45323.66666666666</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>隔离中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>接力塔枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="n">
+        <v>45324.33333333334</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>医院人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
+        <v>45324.66666666666</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>林荫大道雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="n">
+        <v>45325.33333333334</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>市中心人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="2" t="n">
+        <v>45325.66666666666</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>林荫大道鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="n">
+        <v>45326</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>贫民窟15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="n">
+        <v>45326.33333333334</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>接力塔枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
+        <v>45326.66666666666</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>医院人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>唐人街枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2" t="n">
+        <v>45327.33333333334</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="n">
+        <v>45327.66666666666</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>隔离中心鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="n">
+        <v>45328</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>贫民窟枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="n">
+        <v>45328.33333333334</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>市中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="n">
+        <v>45328.66666666666</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>接力塔15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>联合大厦鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2" t="n">
+        <v>45329.33333333334</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>市中心枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="n">
+        <v>45329.66666666666</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>唐人街人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>医院枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="n">
+        <v>45330.33333333334</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>林荫大道鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2" t="n">
+        <v>45330.66666666666</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>地铁15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>联合大厦枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2" t="n">
+        <v>45331.33333333334</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>接力塔雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="n">
+        <v>45331.66666666666</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>联合大厦枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>隔离中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="n">
+        <v>45332.33333333334</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>市中心人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
+        <v>45332.66666666666</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>唐人街鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="n">
+        <v>45333.33333333334</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>医院15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="n">
+        <v>45333.66666666666</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>地铁鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>接力塔人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
+        <v>45334.33333333334</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>贫民窟枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
+        <v>45334.66666666666</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>唐人街雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>45335.33333333334</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>隔离中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
+        <v>45335.66666666666</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>接力塔鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>市中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>45336.33333333334</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>接力塔鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>45336.66666666666</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>隔离中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>唐人街鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>45337.33333333334</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>45337.66666666666</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>医院鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>林荫大道15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>45338.33333333334</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>联合大厦鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>45338.66666666666</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>医院15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>市中心鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>45339.33333333334</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>林荫大道人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>45339.66666666666</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>唐人街雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>45340</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>市中心枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>45340.33333333334</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>地铁鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>45340.66666666666</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>贫民窟雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>45341.33333333334</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>隔离中心鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>45341.66666666666</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>市中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>林荫大道15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>45342.33333333334</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>接力塔人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>45342.66666666666</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>隔离中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>45343</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>45343.33333333334</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>接力塔15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>45343.66666666666</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>医院人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>唐人街枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>45344.33333333334</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>贫民窟人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>45344.66666666666</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>联合大厦雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>45345.33333333334</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>隔离中心人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>45345.66666666666</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>唐人街鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>45346.33333333334</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>贫民窟人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>45346.66666666666</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>医院15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>接力塔鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>45347.33333333334</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>45347.66666666666</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>45348.33333333334</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>贫民窟鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>45348.66666666666</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>接力塔15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>隔离中心鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>45349.33333333334</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>医院枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>45349.66666666666</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>唐人街15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>地铁雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>45350.33333333334</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>45350.66666666666</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>地铁雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>贫民窟枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>45351.33333333334</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>联合大厦15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>45351.66666666666</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>联合大厦雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>45352.33333333334</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>地铁15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>45352.66666666666</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>接力塔人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>贫民窟枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>45353.33333333334</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>唐人街鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>45353.66666666666</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>隔离中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>45354.33333333334</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>唐人街枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>45354.66666666666</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>医院鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>接力塔枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>45355.33333333334</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>医院鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>45355.66666666666</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>唐人街15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>45356.33333333334</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>唐人街枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>45356.66666666666</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>接力塔15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>隔离中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>45357.33333333334</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>接力塔枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>45357.66666666666</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>医院人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>45358.33333333334</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>林荫大道雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>45358.66666666666</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>市中心人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>林荫大道鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>45359.33333333334</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>贫民窟15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>45359.66666666666</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>接力塔枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>医院人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>45360.33333333334</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>唐人街枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>45360.66666666666</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>隔离中心鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>45361.33333333334</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>贫民窟枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>45361.66666666666</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>市中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>接力塔15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>45362.33333333334</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>联合大厦鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>45362.66666666666</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>市中心枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>唐人街人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>45363.33333333334</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>医院枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>45363.66666666666</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>林荫大道鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>地铁15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>45364.33333333334</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>联合大厦枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>45364.66666666666</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>接力塔雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>联合大厦枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>45365.33333333334</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>隔离中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>45365.66666666666</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>市中心人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>唐人街鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>45366.33333333334</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>45366.66666666666</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>医院15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>地铁鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>45367.33333333334</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>接力塔人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>45367.66666666666</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>贫民窟枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>唐人街雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>45368.33333333334</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>45368.66666666666</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>隔离中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>接力塔鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>45369.33333333334</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>市中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>45369.66666666666</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>接力塔鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>隔离中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>45370.33333333334</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>唐人街鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>45370.66666666666</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>医院鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>45371.33333333334</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>林荫大道15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>45371.66666666666</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>联合大厦鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>医院15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>45372.33333333334</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>市中心鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>45372.66666666666</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>林荫大道人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>唐人街雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>45373.33333333334</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>市中心枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>45373.66666666666</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>地铁鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>贫民窟雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>45374.33333333334</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>45374.66666666666</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>隔离中心鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>市中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>45375.33333333334</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>林荫大道15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>45375.66666666666</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>接力塔人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>隔离中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>45376.33333333334</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>45376.66666666666</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>接力塔15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>医院人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>45377.33333333334</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>唐人街枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>45377.66666666666</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>贫民窟人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>联合大厦雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>45378.33333333334</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2" t="n">
+        <v>45378.66666666666</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>隔离中心人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>45379.33333333334</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>唐人街鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>45379.66666666666</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>贫民窟人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>医院15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
+        <v>45380.33333333334</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>接力塔鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="2" t="n">
+        <v>45380.66666666666</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="2" t="n">
+        <v>45381.33333333334</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="2" t="n">
+        <v>45381.66666666666</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>贫民窟鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>接力塔15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2" t="n">
+        <v>45382.33333333334</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>隔离中心鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2" t="n">
+        <v>45382.66666666666</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>医院枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>唐人街15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2" t="n">
+        <v>45383.33333333334</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>地铁雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="2" t="n">
+        <v>45383.66666666666</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>地铁雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>45384.33333333334</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>贫民窟枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>45384.66666666666</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>联合大厦15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>地铁枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>45385.33333333334</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>联合大厦雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2" t="n">
+        <v>45385.66666666666</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>地铁15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>接力塔人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>45386.33333333334</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>贫民窟枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>45386.66666666666</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>唐人街鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>隔离中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2" t="n">
+        <v>45387.33333333334</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2" t="n">
+        <v>45387.66666666666</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>唐人街枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>医院鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>45388.33333333334</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>接力塔枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>45388.66666666666</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>医院鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>唐人街15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>45389.33333333334</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>45389.66666666666</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>唐人街枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>接力塔15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>45390.33333333334</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>隔离中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>45390.66666666666</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>接力塔枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>医院人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>45391.33333333334</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>45391.66666666666</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>林荫大道雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>市中心人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2" t="n">
+        <v>45392.33333333334</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>林荫大道鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2" t="n">
+        <v>45392.66666666666</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>贫民窟15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>接力塔枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>45393.33333333334</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>医院人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>45393.66666666666</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>唐人街枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2" t="n">
+        <v>45394.33333333334</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>隔离中心鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2" t="n">
+        <v>45394.66666666666</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>贫民窟枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>市中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2" t="n">
+        <v>45395.33333333334</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>接力塔15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2" t="n">
+        <v>45395.66666666666</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>联合大厦鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>市中心枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2" t="n">
+        <v>45396.33333333334</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>唐人街人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2" t="n">
+        <v>45396.66666666666</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>医院枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>林荫大道鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2" t="n">
+        <v>45397.33333333334</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>地铁15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2" t="n">
+        <v>45397.66666666666</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>联合大厦枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>接力塔雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2" t="n">
+        <v>45398.33333333334</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>联合大厦枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2" t="n">
+        <v>45398.66666666666</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>隔离中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>市中心人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2" t="n">
+        <v>45399.33333333334</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>唐人街鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="2" t="n">
+        <v>45399.66666666666</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>联合大厦人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>医院15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="2" t="n">
+        <v>45400.33333333334</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>地铁鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="2" t="n">
+        <v>45400.66666666666</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>接力塔人群</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>贫民窟枪手</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="2" t="n">
+        <v>45401.33333333334</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>唐人街雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2" t="n">
+        <v>45401.66666666666</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>隔离中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="2" t="n">
+        <v>45402.33333333334</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>接力塔鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="2" t="n">
+        <v>45402.66666666666</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>市中心雪犁</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="2" t="n">
+        <v>45403</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>接力塔鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2" t="n">
+        <v>45403.33333333334</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>隔离中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="2" t="n">
+        <v>45403.66666666666</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>唐人街鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>市中心15Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="2" t="n">
+        <v>45404.33333333334</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>医院鳄龟</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="2" t="n">
+        <v>45404.66666666666</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>林荫大道15Min</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/History_data.xlsx
+++ b/History_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nerdork\Desktop\python_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D781A8A-9B9A-4360-818E-0E91A5914D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B2EC85-E1F1-4E82-B512-8B2CBDA6CDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,7 +170,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -516,15 +515,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -537,7 +536,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45387.583333333343</v>
+        <v>45387.583344907405</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -545,7 +544,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45387.666666666657</v>
+        <v>45387.666678240741</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -553,7 +552,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45387.749999884261</v>
+        <v>45387.750011631942</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -561,7 +560,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45387.833333159717</v>
+        <v>45387.833345023151</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -569,7 +568,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45387.916666435187</v>
+        <v>45387.916678414353</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -577,7 +576,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45387.99999971065</v>
+        <v>45388.000011805554</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -585,7 +584,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45388.083332986113</v>
+        <v>45388.083345196763</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -593,7 +592,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45388.166666261583</v>
+        <v>45388.166678587964</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -601,7 +600,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45388.249999537038</v>
+        <v>45388.250011979166</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -609,7 +608,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45388.333332812501</v>
+        <v>45388.333345370367</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -617,7 +616,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45388.416666087956</v>
+        <v>45388.416678761576</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -625,7 +624,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45388.499999363426</v>
+        <v>45388.500012152777</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -633,7 +632,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45388.583332638889</v>
+        <v>45388.583345543979</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -641,7 +640,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45388.666665914352</v>
+        <v>45388.666678935188</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -649,7 +648,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45388.749999189808</v>
+        <v>45388.750012326389</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -657,7 +656,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45388.833332465278</v>
+        <v>45388.83334571759</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -665,7 +664,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45388.91666574074</v>
+        <v>45388.916679108799</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -673,7 +672,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45388.999999016203</v>
+        <v>45389.000012500001</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -681,7 +680,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45389.083332291673</v>
+        <v>45389.083345891202</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -689,7 +688,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45389.166665567129</v>
+        <v>45389.166679282411</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -697,7 +696,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45389.249998842592</v>
+        <v>45389.250012673612</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -705,7 +704,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45389.333332118047</v>
+        <v>45389.333346064814</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -713,7 +712,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45389.416665393517</v>
+        <v>45389.416679456015</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -721,7 +720,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45389.49999866898</v>
+        <v>45389.500012847224</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -729,7 +728,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45389.583331944443</v>
+        <v>45389.583346238425</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -737,7 +736,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45389.666665219913</v>
+        <v>45389.666679629627</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -745,7 +744,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45389.749998495368</v>
+        <v>45389.750013020835</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -753,7 +752,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45389.833331770831</v>
+        <v>45389.833346412037</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -761,7 +760,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45389.916665046287</v>
+        <v>45389.916679803238</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
@@ -769,7 +768,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45389.999998321757</v>
+        <v>45390.000013194447</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -777,7 +776,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45390.08333159722</v>
+        <v>45390.083346585649</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -785,7 +784,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45390.166664872682</v>
+        <v>45390.16667997685</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
@@ -793,7 +792,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45390.249998148152</v>
+        <v>45390.250013368059</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -801,7 +800,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45390.333331423608</v>
+        <v>45390.33334675926</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
@@ -809,7 +808,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45390.416664699071</v>
+        <v>45390.416680150462</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
@@ -817,7 +816,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45390.499997974533</v>
+        <v>45390.500013541663</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -825,7 +824,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45390.583331250004</v>
+        <v>45390.583346932872</v>
       </c>
       <c r="B38" t="s">
         <v>17</v>
@@ -833,7 +832,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45390.666664525474</v>
+        <v>45390.666680324073</v>
       </c>
       <c r="B39" t="s">
         <v>28</v>
@@ -841,7 +840,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45390.749997800929</v>
+        <v>45390.750013715275</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
@@ -849,7 +848,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45390.833331076392</v>
+        <v>45390.833347106483</v>
       </c>
       <c r="B41" t="s">
         <v>29</v>
@@ -857,7 +856,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45390.916664351847</v>
+        <v>45390.916680497685</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
@@ -865,7 +864,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45390.999997627317</v>
+        <v>45391.000013888886</v>
       </c>
       <c r="B43" t="s">
         <v>25</v>
@@ -873,7 +872,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45391.08333090278</v>
+        <v>45391.083347280095</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
@@ -881,7 +880,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45391.166664178243</v>
+        <v>45391.166680671296</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
@@ -889,7 +888,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45391.249997453713</v>
+        <v>45391.250014062498</v>
       </c>
       <c r="B46" t="s">
         <v>30</v>
@@ -897,7 +896,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45391.333330729169</v>
+        <v>45391.333347453707</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -905,7 +904,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45391.416664004631</v>
+        <v>45391.416680844908</v>
       </c>
       <c r="B48" t="s">
         <v>31</v>
@@ -913,7 +912,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45391.499997280087</v>
+        <v>45391.50001423611</v>
       </c>
       <c r="B49" t="s">
         <v>32</v>
@@ -921,7 +920,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45391.583330555557</v>
+        <v>45391.583347627318</v>
       </c>
       <c r="B50" t="s">
         <v>33</v>
@@ -929,7 +928,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45391.66666383102</v>
+        <v>45391.66668101852</v>
       </c>
       <c r="B51" t="s">
         <v>34</v>
@@ -937,7 +936,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45391.749997106483</v>
+        <v>45391.750014409721</v>
       </c>
       <c r="B52" t="s">
         <v>30</v>
@@ -945,7 +944,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45391.833330381953</v>
+        <v>45391.833347800923</v>
       </c>
       <c r="B53" t="s">
         <v>35</v>
@@ -953,7 +952,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45391.916663657408</v>
+        <v>45391.916681192131</v>
       </c>
       <c r="B54" t="s">
         <v>30</v>
@@ -961,7 +960,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45391.999996932871</v>
+        <v>45392.000014583333</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -969,7 +968,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45392.083330208327</v>
+        <v>45392.083347974534</v>
       </c>
       <c r="B56" t="s">
         <v>33</v>
@@ -977,7 +976,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45392.166663483797</v>
+        <v>45392.166681365743</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
@@ -985,7 +984,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45392.249996759259</v>
+        <v>45392.250014756944</v>
       </c>
       <c r="B58" t="s">
         <v>23</v>
@@ -993,7 +992,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45392.333330034722</v>
+        <v>45392.333348148146</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
@@ -1001,7 +1000,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45392.416663310178</v>
+        <v>45392.416681539355</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -1009,7 +1008,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45392.499996585648</v>
+        <v>45392.500014930556</v>
       </c>
       <c r="B61" t="s">
         <v>30</v>
@@ -1017,7 +1016,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45392.583329861111</v>
+        <v>45392.583348321758</v>
       </c>
       <c r="B62" t="s">
         <v>36</v>
@@ -1025,7 +1024,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45392.666663136573</v>
+        <v>45392.666681712966</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -1033,7 +1032,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45392.749996412043</v>
+        <v>45392.750015104168</v>
       </c>
       <c r="B64" t="s">
         <v>29</v>
@@ -1041,7 +1040,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45392.833329687499</v>
+        <v>45392.833348495369</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -1049,7 +1048,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45392.916662962962</v>
+        <v>45392.916681886571</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
@@ -1057,7 +1056,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45392.999996238417</v>
+        <v>45393.000015277779</v>
       </c>
       <c r="B67" t="s">
         <v>38</v>
@@ -1065,7 +1064,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45393.083329513887</v>
+        <v>45393.083348668981</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
@@ -1073,7 +1072,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45393.16666278935</v>
+        <v>45393.166682060182</v>
       </c>
       <c r="B69" t="s">
         <v>38</v>
@@ -1081,7 +1080,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45393.249996064813</v>
+        <v>45393.250015451391</v>
       </c>
       <c r="B70" t="s">
         <v>19</v>
@@ -1089,7 +1088,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45393.333329340283</v>
+        <v>45393.333348842592</v>
       </c>
       <c r="B71" t="s">
         <v>39</v>
@@ -1097,7 +1096,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45393.416662615738</v>
+        <v>45393.416682233794</v>
       </c>
       <c r="B72" t="s">
         <v>30</v>
@@ -1105,7 +1104,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45393.499995891201</v>
+        <v>45393.500015625003</v>
       </c>
       <c r="B73" t="s">
         <v>34</v>
@@ -1113,7 +1112,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>45393.583329166657</v>
+        <v>45393.583349016204</v>
       </c>
       <c r="B74" t="s">
         <v>9</v>
@@ -1121,7 +1120,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>45393.666662442127</v>
+        <v>45393.666682407405</v>
       </c>
       <c r="B75" t="s">
         <v>18</v>
@@ -1129,7 +1128,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>45393.74999571759</v>
+        <v>45393.750015798614</v>
       </c>
       <c r="B76" t="s">
         <v>19</v>
@@ -1137,7 +1136,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45393.833328993052</v>
+        <v>45393.833349189816</v>
       </c>
       <c r="B77" t="s">
         <v>14</v>
@@ -1145,7 +1144,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45393.916662268522</v>
+        <v>45393.916682581017</v>
       </c>
       <c r="B78" t="s">
         <v>12</v>
@@ -1153,7 +1152,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45393.999995543978</v>
+        <v>45394.000015972226</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
@@ -1161,7 +1160,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45394.083328819448</v>
+        <v>45394.083349363427</v>
       </c>
       <c r="B80" t="s">
         <v>32</v>
@@ -1169,7 +1168,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45394.166662094911</v>
+        <v>45394.166682754629</v>
       </c>
       <c r="B81" t="s">
         <v>24</v>
@@ -1177,7 +1176,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45394.249995370366</v>
+        <v>45394.25001614583</v>
       </c>
       <c r="B82" t="s">
         <v>40</v>
@@ -1185,7 +1184,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>45394.333328645836</v>
+        <v>45394.333349537039</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
@@ -1193,7 +1192,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>45394.416661921299</v>
+        <v>45394.41668292824</v>
       </c>
       <c r="B84" t="s">
         <v>37</v>
@@ -1201,7 +1200,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45394.499995196762</v>
+        <v>45394.500016319442</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
@@ -1209,7 +1208,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45394.583328472218</v>
+        <v>45394.583349710651</v>
       </c>
       <c r="B86" t="s">
         <v>32</v>
@@ -1217,7 +1216,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>45394.666661747688</v>
+        <v>45394.666683101852</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -1225,7 +1224,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45394.74999502315</v>
+        <v>45394.750016493053</v>
       </c>
       <c r="B88" t="s">
         <v>22</v>
@@ -1233,7 +1232,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45394.833328298613</v>
+        <v>45394.833349884262</v>
       </c>
       <c r="B89" t="s">
         <v>40</v>
@@ -1241,7 +1240,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>45394.916661574083</v>
+        <v>45394.916683275464</v>
       </c>
       <c r="B90" t="s">
         <v>31</v>
@@ -1249,7 +1248,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>45394.999994849539</v>
+        <v>45395.000016666665</v>
       </c>
       <c r="B91" t="s">
         <v>21</v>
@@ -1257,7 +1256,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>45395.083328125002</v>
+        <v>45395.083350057874</v>
       </c>
       <c r="B92" t="s">
         <v>41</v>
@@ -1265,7 +1264,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45395.166661400457</v>
+        <v>45395.166683449075</v>
       </c>
       <c r="B93" t="s">
         <v>13</v>
@@ -1273,7 +1272,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45395.249994675927</v>
+        <v>45395.250016840277</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
@@ -1281,7 +1280,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45395.33332795139</v>
+        <v>45395.333350231478</v>
       </c>
       <c r="B95" t="s">
         <v>42</v>
@@ -1289,7 +1288,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45395.416661226853</v>
+        <v>45395.416683622687</v>
       </c>
       <c r="B96" t="s">
         <v>40</v>
@@ -1297,7 +1296,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>45395.499994502323</v>
+        <v>45395.500017013888</v>
       </c>
       <c r="B97" t="s">
         <v>31</v>
@@ -1305,7 +1304,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>45395.583327777778</v>
+        <v>45395.58335040509</v>
       </c>
       <c r="B98" t="s">
         <v>32</v>
@@ -1313,7 +1312,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45395.666661053241</v>
+        <v>45395.666683796298</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
@@ -1321,7 +1320,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45395.749994328697</v>
+        <v>45395.7500171875</v>
       </c>
       <c r="B100" t="s">
         <v>29</v>
@@ -1329,7 +1328,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45395.833327604167</v>
+        <v>45395.833350578701</v>
       </c>
       <c r="B101" t="s">
         <v>19</v>
@@ -1634,6 +1633,306 @@
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="2"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="2"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="2"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="2"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="2"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="2"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="2"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="2"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="2"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="2"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="2"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="2"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="2"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="2"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="2"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="2"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="2"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="2"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="2"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="2"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="2"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="2"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="2"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="2"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="2"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="2"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="2"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="2"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="2"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="2"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="2"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="2"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="2"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="2"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="2"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="2"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="2"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="2"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="2"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="2"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="2"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="2"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="2"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="2"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="2"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="2"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="2"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="2"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="2"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="2"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="2"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="2"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="2"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="2"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="2"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="2"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="2"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="2"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="2"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="2"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="2"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="2"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="2"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="2"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="2"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="2"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="2"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="2"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="2"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="2"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="2"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="2"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="2"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="2"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="2"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="2"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="2"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="2"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="2"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="2"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="2"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="2"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="2"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="2"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="2"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="2"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="2"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="2"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="2"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="2"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="2"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="2"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
